--- a/data/rob2.xlsx
+++ b/data/rob2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur/Coding/projects/active/toci_sari_bari/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF415F21-9EAD-B64C-B437-2450B938FED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE2AC7-BDE3-804C-92D9-7AACCDFAAEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" xr2:uid="{B3E425D8-ACAB-414E-A844-4F788CA42072}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="44">
   <si>
     <t>study</t>
   </si>
@@ -43,9 +43,6 @@
     <t>REMAP-CAP</t>
   </si>
   <si>
-    <t>RECOVERY</t>
-  </si>
-  <si>
     <t>COVACTA</t>
   </si>
   <si>
@@ -164,6 +161,12 @@
   </si>
   <si>
     <t>weights</t>
+  </si>
+  <si>
+    <t>RECOVERY Bari</t>
+  </si>
+  <si>
+    <t>RECOVERY Toci</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256DA804-6BC7-B74F-8846-DC0110A14469}">
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -566,31 +569,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -619,28 +622,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -669,31 +672,31 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -722,31 +725,31 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -775,31 +778,31 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -828,31 +831,31 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -881,31 +884,31 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -934,31 +937,31 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -987,31 +990,31 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1040,31 +1043,31 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1093,31 +1096,31 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1146,31 +1149,31 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1199,31 +1202,31 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1252,31 +1255,31 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1305,31 +1308,31 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1337,31 +1340,31 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1369,31 +1372,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1401,31 +1404,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1433,31 +1436,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1465,31 +1468,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1497,31 +1500,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1529,31 +1532,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1561,31 +1564,31 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1593,31 +1596,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1625,33 +1628,65 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
         <v>17</v>
       </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25">
+      <c r="J26">
         <v>1</v>
       </c>
     </row>

--- a/data/rob2.xlsx
+++ b/data/rob2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur/Coding/projects/active/toci_sari_bari/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE2AC7-BDE3-804C-92D9-7AACCDFAAEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BFB2B4-4B3C-B64A-A44F-307B103C0368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" xr2:uid="{B3E425D8-ACAB-414E-A844-4F788CA42072}"/>
+    <workbookView xWindow="2780" yWindow="2020" windowWidth="28800" windowHeight="16600" xr2:uid="{B3E425D8-ACAB-414E-A844-4F788CA42072}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="45">
   <si>
     <t>study</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>RECOVERY Toci</t>
+  </si>
+  <si>
+    <t>CORIMUNO-TOCI-DEX</t>
   </si>
 </sst>
 </file>
@@ -553,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256DA804-6BC7-B74F-8846-DC0110A14469}">
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1374,8 +1377,8 @@
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>37</v>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>30</v>
@@ -1406,8 +1409,8 @@
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>37</v>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>30</v>
@@ -1566,8 +1569,8 @@
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>37</v>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>32</v>
@@ -1598,8 +1601,8 @@
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>37</v>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>32</v>
@@ -1630,8 +1633,8 @@
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>37</v>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>32</v>
@@ -1687,6 +1690,38 @@
         <v>17</v>
       </c>
       <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27">
         <v>1</v>
       </c>
     </row>

--- a/data/rob2.xlsx
+++ b/data/rob2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur/Coding/projects/active/toci_sari_bari/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur/Coding/projects/done/toci_sari_bari/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BFB2B4-4B3C-B64A-A44F-307B103C0368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0548D7-49EC-AE46-AC5F-C805803E4585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="2020" windowWidth="28800" windowHeight="16600" xr2:uid="{B3E425D8-ACAB-414E-A844-4F788CA42072}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{B3E425D8-ACAB-414E-A844-4F788CA42072}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="46">
   <si>
     <t>study</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>CORIMUNO-TOCI-DEX</t>
+  </si>
+  <si>
+    <t>Lescure et al.</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256DA804-6BC7-B74F-8846-DC0110A14469}">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1725,6 +1728,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
